--- a/Test Case - 7/TC7_Results_A.xlsx
+++ b/Test Case - 7/TC7_Results_A.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="TC7_Results_A" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -801,12 +801,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -814,8 +811,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -861,7 +862,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1148,103 +1169,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="4" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1290,8 +1311,12 @@
       <c r="O3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <f>IF(K3=TRUE,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1354,8 +1379,12 @@
         <f>IF(M4=0,TRUE,OR(AND(S4&lt;(M4*1.03),S4&gt;(M4*0.97)),O4))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <f t="shared" ref="U4:U67" si="0">IF(K4=TRUE,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1411,15 +1440,19 @@
         <v>21.231000000000002</v>
       </c>
       <c r="S5">
-        <f t="shared" ref="S5:S7" si="0">0.9*((R5-D5)^0.51)*((SQRT((P5-B5)^2+(Q5-C5)^2)^(-0.35)))</f>
+        <f t="shared" ref="S5:S7" si="1">0.9*((R5-D5)^0.51)*((SQRT((P5-B5)^2+(Q5-C5)^2)^(-0.35)))</f>
         <v>1.6076568512942242</v>
       </c>
       <c r="T5" t="b">
-        <f t="shared" ref="T5:T7" si="1">IF(M5=0,TRUE,OR(AND(S5&lt;(M5*1.03),S5&gt;(M5*0.97)),O5))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" ref="T5:T7" si="2">IF(M5=0,TRUE,OR(AND(S5&lt;(M5*1.03),S5&gt;(M5*0.97)),O5))</f>
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1475,15 +1508,19 @@
         <v>21.231000000000002</v>
       </c>
       <c r="S6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0959231366126532</v>
       </c>
       <c r="T6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1539,15 +1576,19 @@
         <v>21.303999999999998</v>
       </c>
       <c r="S7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1798700900054704</v>
       </c>
-      <c r="T7" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T7" s="6" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1602,8 +1643,12 @@
       <c r="R8">
         <v>21.303999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1658,8 +1703,12 @@
       <c r="R9">
         <v>21.303999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1714,8 +1763,12 @@
       <c r="R10">
         <v>21.303999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1761,8 +1814,12 @@
       <c r="O11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1808,8 +1865,12 @@
       <c r="O12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1865,15 +1926,19 @@
         <v>21.228000000000002</v>
       </c>
       <c r="S13">
-        <f t="shared" ref="S8:S14" si="2">0.9*((R13-D13)^0.51)*((SQRT((P13-B13)^2+(Q13-C13)^2)^(-0.35)))</f>
+        <f t="shared" ref="S13:S14" si="3">0.9*((R13-D13)^0.51)*((SQRT((P13-B13)^2+(Q13-C13)^2)^(-0.35)))</f>
         <v>4.2559362412849433</v>
       </c>
       <c r="T13" t="b">
-        <f t="shared" ref="T8:T14" si="3">IF(M13=0,TRUE,OR(AND(S13&lt;(M13*1.03),S13&gt;(M13*0.97)),O13))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" ref="T13:T14" si="4">IF(M13=0,TRUE,OR(AND(S13&lt;(M13*1.03),S13&gt;(M13*0.97)),O13))</f>
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1929,15 +1994,19 @@
         <v>21.228000000000002</v>
       </c>
       <c r="S14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0340536432254828</v>
       </c>
       <c r="T14" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1992,8 +2061,12 @@
       <c r="R15">
         <v>27.268999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2049,15 +2122,19 @@
         <v>27.268999999999998</v>
       </c>
       <c r="S16">
-        <f t="shared" ref="S15:S47" si="4">0.9*((R16-D16)^0.51)*((SQRT((P16-B16)^2+(Q16-C16)^2)^(-0.35)))</f>
+        <f t="shared" ref="S16:S47" si="5">0.9*((R16-D16)^0.51)*((SQRT((P16-B16)^2+(Q16-C16)^2)^(-0.35)))</f>
         <v>1.2878911681805887</v>
       </c>
       <c r="T16" t="b">
-        <f t="shared" ref="T15:T47" si="5">IF(M16=0,TRUE,OR(AND(S16&lt;(M16*1.03),S16&gt;(M16*0.97)),O16))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" ref="T16:T47" si="6">IF(M16=0,TRUE,OR(AND(S16&lt;(M16*1.03),S16&gt;(M16*0.97)),O16))</f>
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2113,15 +2190,19 @@
         <v>27.265000000000001</v>
       </c>
       <c r="S17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.28789890926934</v>
       </c>
       <c r="T17" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2176,8 +2257,12 @@
       <c r="R18">
         <v>27.265000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2232,8 +2317,12 @@
       <c r="R19">
         <v>21.228000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2288,8 +2377,12 @@
       <c r="R20">
         <v>21.228000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2344,8 +2437,12 @@
       <c r="R21">
         <v>21.228000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2401,15 +2498,19 @@
         <v>21.228000000000002</v>
       </c>
       <c r="S22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2388338546897548</v>
       </c>
       <c r="T22" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2465,15 +2566,19 @@
         <v>21.228000000000002</v>
       </c>
       <c r="S23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.235694682418341</v>
       </c>
       <c r="T23" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2528,8 +2633,12 @@
       <c r="R24">
         <v>21.228000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2585,15 +2694,19 @@
         <v>21.228000000000002</v>
       </c>
       <c r="S25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.98445984311608736</v>
       </c>
       <c r="T25" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2649,15 +2762,19 @@
         <v>27.265999999999998</v>
       </c>
       <c r="S26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1156843785406332</v>
       </c>
       <c r="T26" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2712,8 +2829,12 @@
       <c r="R27">
         <v>21.228000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2768,8 +2889,12 @@
       <c r="R28">
         <v>21.228000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2825,15 +2950,19 @@
         <v>27.266999999999999</v>
       </c>
       <c r="S29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1190866378010158</v>
       </c>
       <c r="T29" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2888,8 +3017,12 @@
       <c r="R30">
         <v>21.228000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2944,8 +3077,12 @@
       <c r="R31">
         <v>21.228000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -3001,15 +3138,19 @@
         <v>21.228000000000002</v>
       </c>
       <c r="S32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6788762855890806</v>
       </c>
       <c r="T32" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -3064,8 +3205,12 @@
       <c r="R33">
         <v>27.266999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -3120,8 +3265,12 @@
       <c r="R34">
         <v>21.228000000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -3176,8 +3325,12 @@
       <c r="R35">
         <v>21.228000000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -3224,15 +3377,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T36" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T36" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -3279,15 +3436,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T37" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T37" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -3334,15 +3495,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T38" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T38" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
@@ -3389,15 +3554,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T39" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T39" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -3444,15 +3613,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T40" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T40" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -3499,15 +3672,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T41" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T41" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -3554,15 +3731,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T42" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T42" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -3609,15 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T43" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T43" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -3664,15 +3849,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T44" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T44" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -3719,15 +3908,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T45" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T45" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
@@ -3774,15 +3967,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T46" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T46" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
@@ -3829,15 +4026,19 @@
         <v>0</v>
       </c>
       <c r="S47" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T47" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T47" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
@@ -3883,8 +4084,12 @@
       <c r="O48" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -3930,8 +4135,12 @@
       <c r="O49" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
@@ -3977,8 +4186,12 @@
       <c r="O50" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
@@ -4024,8 +4237,12 @@
       <c r="O51" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
@@ -4071,8 +4288,12 @@
       <c r="O52" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
@@ -4118,8 +4339,12 @@
       <c r="O53" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
@@ -4165,8 +4390,12 @@
       <c r="O54" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -4212,8 +4441,12 @@
       <c r="O55" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
@@ -4259,8 +4492,12 @@
       <c r="O56" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
@@ -4306,8 +4543,12 @@
       <c r="O57" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
@@ -4353,8 +4594,12 @@
       <c r="O58" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
@@ -4400,8 +4645,12 @@
       <c r="O59" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
@@ -4447,8 +4696,12 @@
       <c r="O60" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
@@ -4494,8 +4747,12 @@
       <c r="O61" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
@@ -4538,8 +4795,12 @@
       <c r="O62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
@@ -4582,8 +4843,12 @@
       <c r="O63" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
@@ -4626,8 +4891,12 @@
       <c r="O64" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
@@ -4670,8 +4939,12 @@
       <c r="O65" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
@@ -4714,8 +4987,12 @@
       <c r="O66" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
@@ -4758,8 +5035,12 @@
       <c r="O67" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
@@ -4802,8 +5083,12 @@
       <c r="O68" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U68">
+        <f t="shared" ref="U68:U69" si="7">IF(K68=TRUE,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
@@ -4849,9 +5134,25 @@
       <c r="O69" t="b">
         <v>1</v>
       </c>
+      <c r="U69">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U70">
+        <f>SUM(U2:U69)</f>
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="T1:T2"/>
@@ -4861,19 +5162,19 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="O3:O69">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K69">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Test Case - 7/TC7_Results_A.xlsx
+++ b/Test Case - 7/TC7_Results_A.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
   <si>
     <t>799f0c5c-7274-443f-adfa-f4b3f2cce874</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>z</t>
+  </si>
+  <si>
+    <t>These points do not pull a magic point.  We need to discuss analysis of sub-levels and running sub-levels without significant points.  This is the same issue with TC4</t>
   </si>
 </sst>
 </file>
@@ -807,6 +810,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -816,7 +820,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -862,7 +865,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -875,11 +898,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1171,65 +1194,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="2" t="s">
         <v>81</v>
       </c>
@@ -1248,22 +1271,22 @@
       <c r="G2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="3" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="T2" s="3"/>
+      <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1579,7 +1602,7 @@
         <f t="shared" si="1"/>
         <v>1.1798700900054704</v>
       </c>
-      <c r="T7" s="6" t="b">
+      <c r="T7" s="3" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3376,6 +3399,11 @@
       <c r="O36" t="b">
         <v>0</v>
       </c>
+      <c r="P36" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
       <c r="S36" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
@@ -3435,6 +3463,9 @@
       <c r="O37" t="b">
         <v>0</v>
       </c>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
       <c r="S37" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
@@ -3494,6 +3525,9 @@
       <c r="O38" t="b">
         <v>0</v>
       </c>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
       <c r="S38" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
@@ -3553,6 +3587,9 @@
       <c r="O39" t="b">
         <v>0</v>
       </c>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
       <c r="S39" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
@@ -3612,6 +3649,9 @@
       <c r="O40" t="b">
         <v>0</v>
       </c>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
       <c r="S40" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
@@ -3671,6 +3711,9 @@
       <c r="O41" t="b">
         <v>0</v>
       </c>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
       <c r="S41" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
@@ -3730,6 +3773,9 @@
       <c r="O42" t="b">
         <v>0</v>
       </c>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
       <c r="S42" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
@@ -3789,6 +3835,9 @@
       <c r="O43" t="b">
         <v>0</v>
       </c>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
       <c r="S43" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
@@ -3848,6 +3897,9 @@
       <c r="O44" t="b">
         <v>0</v>
       </c>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
       <c r="S44" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
@@ -3907,6 +3959,9 @@
       <c r="O45" t="b">
         <v>0</v>
       </c>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
       <c r="S45" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
@@ -3966,6 +4021,9 @@
       <c r="O46" t="b">
         <v>0</v>
       </c>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
       <c r="S46" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
@@ -4025,6 +4083,9 @@
       <c r="O47" t="b">
         <v>0</v>
       </c>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
       <c r="S47" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
@@ -5146,13 +5207,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P36:R47"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="T1:T2"/>
@@ -5164,13 +5226,24 @@
     <mergeCell ref="P1:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="O3:O69">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K69">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4:T69">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>FALSE</formula>
+      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Case - 7/TC7_Results_A.xlsx
+++ b/Test Case - 7/TC7_Results_A.xlsx
@@ -1194,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5208,12 +5208,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
     <mergeCell ref="P36:R47"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
@@ -5224,6 +5218,12 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="O3:O69">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
